--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H2">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I2">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J2">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N2">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O2">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P2">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q2">
-        <v>28.87980529701447</v>
+        <v>30.42576739718499</v>
       </c>
       <c r="R2">
-        <v>28.87980529701447</v>
+        <v>121.70306958874</v>
       </c>
       <c r="S2">
-        <v>0.00497583175964748</v>
+        <v>0.004866943454971788</v>
       </c>
       <c r="T2">
-        <v>0.00497583175964748</v>
+        <v>0.002860172306119303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H3">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I3">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J3">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N3">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P3">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q3">
-        <v>367.0197645350518</v>
+        <v>398.7648255886083</v>
       </c>
       <c r="R3">
-        <v>367.0197645350518</v>
+        <v>2392.58895353165</v>
       </c>
       <c r="S3">
-        <v>0.06323548867487144</v>
+        <v>0.0637869156309597</v>
       </c>
       <c r="T3">
-        <v>0.06323548867487144</v>
+        <v>0.05622879265036489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H4">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I4">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J4">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N4">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O4">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P4">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q4">
-        <v>978.5967982870071</v>
+        <v>1039.957277545632</v>
       </c>
       <c r="R4">
-        <v>978.5967982870071</v>
+        <v>6239.74366527379</v>
       </c>
       <c r="S4">
-        <v>0.1686068510063401</v>
+        <v>0.1663528547802306</v>
       </c>
       <c r="T4">
-        <v>0.1686068510063401</v>
+        <v>0.1466416754236956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H5">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I5">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J5">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N5">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O5">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P5">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q5">
-        <v>1168.46356314681</v>
+        <v>1215.829990519397</v>
       </c>
       <c r="R5">
-        <v>1168.46356314681</v>
+        <v>7294.97994311638</v>
       </c>
       <c r="S5">
-        <v>0.2013198512836859</v>
+        <v>0.1944856718803505</v>
       </c>
       <c r="T5">
-        <v>0.2013198512836859</v>
+        <v>0.1714410300208867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H6">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I6">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J6">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N6">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O6">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P6">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q6">
-        <v>37.92521280698113</v>
+        <v>40.88271624422166</v>
       </c>
       <c r="R6">
-        <v>37.92521280698113</v>
+        <v>245.29629746533</v>
       </c>
       <c r="S6">
-        <v>0.006534305769570906</v>
+        <v>0.0065396499502817</v>
       </c>
       <c r="T6">
-        <v>0.006534305769570906</v>
+        <v>0.005764765664290615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.2680028289044</v>
+        <v>24.087655</v>
       </c>
       <c r="H7">
-        <v>23.2680028289044</v>
+        <v>48.17531</v>
       </c>
       <c r="I7">
-        <v>0.5542334589333159</v>
+        <v>0.5497057494739802</v>
       </c>
       <c r="J7">
-        <v>0.5542334589333159</v>
+        <v>0.4497394328717221</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N7">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O7">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P7">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q7">
-        <v>635.8945133283743</v>
+        <v>710.632865690215</v>
       </c>
       <c r="R7">
-        <v>635.8945133283743</v>
+        <v>2842.53146276086</v>
       </c>
       <c r="S7">
-        <v>0.1095611304392001</v>
+        <v>0.1136737137771858</v>
       </c>
       <c r="T7">
-        <v>0.1095611304392001</v>
+        <v>0.06680299680636492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H8">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I8">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J8">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N8">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O8">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P8">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q8">
-        <v>2.612044726316391</v>
+        <v>3.083818467831999</v>
       </c>
       <c r="R8">
-        <v>2.612044726316391</v>
+        <v>18.502910806992</v>
       </c>
       <c r="S8">
-        <v>0.0004500409532943916</v>
+        <v>0.0004932914234309401</v>
       </c>
       <c r="T8">
-        <v>0.0004500409532943916</v>
+        <v>0.000434841234913687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H9">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I9">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J9">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N9">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P9">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q9">
-        <v>33.19523904500738</v>
+        <v>40.41700304281333</v>
       </c>
       <c r="R9">
-        <v>33.19523904500738</v>
+        <v>363.75302738532</v>
       </c>
       <c r="S9">
-        <v>0.005719357281342654</v>
+        <v>0.006465153889495475</v>
       </c>
       <c r="T9">
-        <v>0.005719357281342654</v>
+        <v>0.008548644982499329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H10">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I10">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J10">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N10">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O10">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P10">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q10">
-        <v>88.50955121985986</v>
+        <v>105.4053761861147</v>
       </c>
       <c r="R10">
-        <v>88.50955121985986</v>
+        <v>948.648385675032</v>
       </c>
       <c r="S10">
-        <v>0.01524970931980115</v>
+        <v>0.01686077458790121</v>
       </c>
       <c r="T10">
-        <v>0.01524970931980115</v>
+        <v>0.02229440761125672</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H11">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I11">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J11">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N11">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O11">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P11">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q11">
-        <v>105.6821213516284</v>
+        <v>123.2310406361227</v>
       </c>
       <c r="R11">
-        <v>105.6821213516284</v>
+        <v>1109.079365725104</v>
       </c>
       <c r="S11">
-        <v>0.01820844879112512</v>
+        <v>0.01971218996201323</v>
       </c>
       <c r="T11">
-        <v>0.01820844879112512</v>
+        <v>0.02606473360002083</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H12">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I12">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J12">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N12">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O12">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P12">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q12">
-        <v>3.430159971235774</v>
+        <v>4.143687609362667</v>
       </c>
       <c r="R12">
-        <v>3.430159971235774</v>
+        <v>37.293188484264</v>
       </c>
       <c r="S12">
-        <v>0.0005909977144932794</v>
+        <v>0.0006628294046480219</v>
       </c>
       <c r="T12">
-        <v>0.0005909977144932794</v>
+        <v>0.0008764359458641616</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.10448316586946</v>
+        <v>2.441416</v>
       </c>
       <c r="H13">
-        <v>2.10448316586946</v>
+        <v>7.324248</v>
       </c>
       <c r="I13">
-        <v>0.05012785123258841</v>
+        <v>0.05571569387131155</v>
       </c>
       <c r="J13">
-        <v>0.05012785123258841</v>
+        <v>0.06837533877274157</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N13">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O13">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P13">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q13">
-        <v>57.5137156552997</v>
+        <v>72.02654008544799</v>
       </c>
       <c r="R13">
-        <v>57.5137156552997</v>
+        <v>432.159240512688</v>
       </c>
       <c r="S13">
-        <v>0.009909297172531814</v>
+        <v>0.01152145460382265</v>
       </c>
       <c r="T13">
-        <v>0.009909297172531814</v>
+        <v>0.01015627539818685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H14">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I14">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J14">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N14">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O14">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P14">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q14">
-        <v>4.374177255482684</v>
+        <v>4.689228043334333</v>
       </c>
       <c r="R14">
-        <v>4.374177255482684</v>
+        <v>28.135368260006</v>
       </c>
       <c r="S14">
-        <v>0.0007536467052431421</v>
+        <v>0.0007500947284730678</v>
       </c>
       <c r="T14">
-        <v>0.0007536467052431421</v>
+        <v>0.0006612158706569098</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H15">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I15">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J15">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N15">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P15">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q15">
-        <v>55.58934659811566</v>
+        <v>61.45774988795944</v>
       </c>
       <c r="R15">
-        <v>55.58934659811566</v>
+        <v>553.119748991635</v>
       </c>
       <c r="S15">
-        <v>0.00957773895828689</v>
+        <v>0.009830857827506145</v>
       </c>
       <c r="T15">
-        <v>0.00957773895828689</v>
+        <v>0.01299899660197152</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H16">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I16">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J16">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N16">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O16">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P16">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q16">
-        <v>148.2196923882211</v>
+        <v>160.2785154463446</v>
       </c>
       <c r="R16">
-        <v>148.2196923882211</v>
+        <v>1442.506639017101</v>
       </c>
       <c r="S16">
-        <v>0.0255374385389895</v>
+        <v>0.02563834994006933</v>
       </c>
       <c r="T16">
-        <v>0.0255374385389895</v>
+        <v>0.03390068594203863</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H17">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I17">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J17">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N17">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O17">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P17">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q17">
-        <v>176.9771883574784</v>
+        <v>187.3840686758802</v>
       </c>
       <c r="R17">
-        <v>176.9771883574784</v>
+        <v>1686.456618082922</v>
       </c>
       <c r="S17">
-        <v>0.03049219707354782</v>
+        <v>0.02997418782253745</v>
       </c>
       <c r="T17">
-        <v>0.03049219707354782</v>
+        <v>0.03963381146270339</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H18">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I18">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J18">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N18">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O18">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P18">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q18">
-        <v>5.744207814544614</v>
+        <v>6.300856014491888</v>
       </c>
       <c r="R18">
-        <v>5.744207814544614</v>
+        <v>56.707704130427</v>
       </c>
       <c r="S18">
-        <v>0.0009896954423228438</v>
+        <v>0.001007892735789736</v>
       </c>
       <c r="T18">
-        <v>0.0009896954423228438</v>
+        <v>0.001332701019337813</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.52420550304825</v>
+        <v>3.712396333333333</v>
       </c>
       <c r="H19">
-        <v>3.52420550304825</v>
+        <v>11.137189</v>
       </c>
       <c r="I19">
-        <v>0.08394500466193335</v>
+        <v>0.08472080859508559</v>
       </c>
       <c r="J19">
-        <v>0.08394500466193335</v>
+        <v>0.1039709565884512</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N19">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O19">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P19">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q19">
-        <v>96.31350656559837</v>
+        <v>109.5229421433723</v>
       </c>
       <c r="R19">
-        <v>96.31350656559837</v>
+        <v>657.137652860234</v>
       </c>
       <c r="S19">
-        <v>0.01659428794354314</v>
+        <v>0.01751942554070985</v>
       </c>
       <c r="T19">
-        <v>0.01659428794354314</v>
+        <v>0.01544354569174298</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H20">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I20">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J20">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N20">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O20">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P20">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q20">
-        <v>16.00696912306972</v>
+        <v>16.83255460948833</v>
       </c>
       <c r="R20">
-        <v>16.00696912306972</v>
+        <v>100.99532765693</v>
       </c>
       <c r="S20">
-        <v>0.002757912822442081</v>
+        <v>0.002692556293409514</v>
       </c>
       <c r="T20">
-        <v>0.002757912822442081</v>
+        <v>0.002373514819206515</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>27</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H21">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I21">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J21">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N21">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O21">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P21">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q21">
-        <v>203.4249877396585</v>
+        <v>220.6100709126028</v>
       </c>
       <c r="R21">
-        <v>203.4249877396585</v>
+        <v>1985.490638213425</v>
       </c>
       <c r="S21">
-        <v>0.03504900757781537</v>
+        <v>0.03528906031235528</v>
       </c>
       <c r="T21">
-        <v>0.03504900757781537</v>
+        <v>0.04666147991720488</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H22">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I22">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J22">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N22">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O22">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P22">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q22">
-        <v>542.3986960097117</v>
+        <v>575.3392326085172</v>
       </c>
       <c r="R22">
-        <v>542.3986960097117</v>
+        <v>5178.053093476656</v>
       </c>
       <c r="S22">
-        <v>0.0934523148698481</v>
+        <v>0.09203197658020568</v>
       </c>
       <c r="T22">
-        <v>0.0934523148698481</v>
+        <v>0.1216906369545469</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H23">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I23">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J23">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N23">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O23">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P23">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q23">
-        <v>647.6345662433033</v>
+        <v>672.6379139138789</v>
       </c>
       <c r="R23">
-        <v>647.6345662433033</v>
+        <v>6053.741225224911</v>
       </c>
       <c r="S23">
-        <v>0.1115838770454622</v>
+        <v>0.1075959942095631</v>
       </c>
       <c r="T23">
-        <v>0.1115838770454622</v>
+        <v>0.1422703885720479</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H24">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I24">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J24">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N24">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O24">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P24">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q24">
-        <v>21.02049179846627</v>
+        <v>22.61768930202056</v>
       </c>
       <c r="R24">
-        <v>21.02049179846627</v>
+        <v>203.559203718185</v>
       </c>
       <c r="S24">
-        <v>0.00362171523036655</v>
+        <v>0.003617953607482024</v>
       </c>
       <c r="T24">
-        <v>0.00362171523036655</v>
+        <v>0.004783892461364154</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.8965621134667</v>
+        <v>13.32609833333333</v>
       </c>
       <c r="H25">
-        <v>12.8965621134667</v>
+        <v>39.978295</v>
       </c>
       <c r="I25">
-        <v>0.3071903627077031</v>
+        <v>0.3041156506056302</v>
       </c>
       <c r="J25">
-        <v>0.3071903627077031</v>
+        <v>0.3732163990325834</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N25">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O25">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P25">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q25">
-        <v>352.4519551185822</v>
+        <v>393.1459267033784</v>
       </c>
       <c r="R25">
-        <v>352.4519551185822</v>
+        <v>2358.87556022027</v>
       </c>
       <c r="S25">
-        <v>0.06072553516176884</v>
+        <v>0.06288810960261454</v>
       </c>
       <c r="T25">
-        <v>0.06072553516176884</v>
+        <v>0.05543648630821296</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H26">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I26">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J26">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N26">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O26">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P26">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q26">
-        <v>0.2346575686959718</v>
+        <v>0.317820436978</v>
       </c>
       <c r="R26">
-        <v>0.2346575686959718</v>
+        <v>1.271281747912</v>
       </c>
       <c r="S26">
-        <v>4.043020965518015E-05</v>
+        <v>5.083895092649209E-05</v>
       </c>
       <c r="T26">
-        <v>4.043020965518015E-05</v>
+        <v>2.987668972475329E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>27</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H27">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I27">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J27">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N27">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O27">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P27">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q27">
-        <v>2.982151878221514</v>
+        <v>4.165403931003334</v>
       </c>
       <c r="R27">
-        <v>2.982151878221514</v>
+        <v>24.99242358602</v>
       </c>
       <c r="S27">
-        <v>0.0005138083818480932</v>
+        <v>0.0006663031743674633</v>
       </c>
       <c r="T27">
-        <v>0.0005138083818480932</v>
+        <v>0.0005873527927035202</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>21</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H28">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I28">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J28">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N28">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O28">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P28">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q28">
-        <v>7.951409057575283</v>
+        <v>10.86315004230867</v>
       </c>
       <c r="R28">
-        <v>7.951409057575283</v>
+        <v>65.17890025385201</v>
       </c>
       <c r="S28">
-        <v>0.001369984088040991</v>
+        <v>0.001737682941850212</v>
       </c>
       <c r="T28">
-        <v>0.001369984088040991</v>
+        <v>0.001531784580942302</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H29">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I29">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J29">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N29">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O29">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P29">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q29">
-        <v>9.494136681946664</v>
+        <v>12.70027519219067</v>
       </c>
       <c r="R29">
-        <v>9.494136681946664</v>
+        <v>76.20165115314401</v>
       </c>
       <c r="S29">
-        <v>0.001635787580512119</v>
+        <v>0.002031551757300681</v>
       </c>
       <c r="T29">
-        <v>0.001635787580512119</v>
+        <v>0.00179083282817175</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H30">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I30">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J30">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N30">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O30">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P30">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q30">
-        <v>0.3081543707804543</v>
+        <v>0.4270512744006667</v>
       </c>
       <c r="R30">
-        <v>0.3081543707804543</v>
+        <v>2.562307646404</v>
       </c>
       <c r="S30">
-        <v>5.309330479323148E-05</v>
+        <v>6.831165103411603E-05</v>
       </c>
       <c r="T30">
-        <v>5.309330479323148E-05</v>
+        <v>6.021739135066567E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.189059895525201</v>
+        <v>0.251614</v>
       </c>
       <c r="H31">
-        <v>0.189059895525201</v>
+        <v>0.503228</v>
       </c>
       <c r="I31">
-        <v>0.004503322464459118</v>
+        <v>0.00574209745399235</v>
       </c>
       <c r="J31">
-        <v>0.004503322464459118</v>
+        <v>0.00469787273450178</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N31">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O31">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P31">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q31">
-        <v>5.166844405982555</v>
+        <v>7.423104402142</v>
       </c>
       <c r="R31">
-        <v>5.166844405982555</v>
+        <v>29.692417608568</v>
       </c>
       <c r="S31">
-        <v>0.0008902188996095032</v>
+        <v>0.001187408978513385</v>
       </c>
       <c r="T31">
-        <v>0.0008902188996095032</v>
+        <v>0.000697808451608789</v>
       </c>
     </row>
   </sheetData>
